--- a/app/assets/stylesheets/Steve Jobs (7).xlsx
+++ b/app/assets/stylesheets/Steve Jobs (7).xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -86,6 +86,32 @@
     <col min="11" max="11" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="9.68988764044944"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="190.08988764044946"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="190.08988764044946"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="28.389887640449437"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="4.189887640449439"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,22 +162,57 @@
       </c>
       <c r="J1" s="0" t="inlineStr">
         <is>
-          <t>Entry Date</t>
+          <t>q1_opt1</t>
         </is>
       </c>
       <c r="K1" s="0" t="inlineStr">
         <is>
-          <t>q1_opt1</t>
+          <t>q1_opt2</t>
         </is>
       </c>
       <c r="L1" s="0" t="inlineStr">
         <is>
-          <t>q1_opt2</t>
+          <t>q1_opt3</t>
         </is>
       </c>
       <c r="M1" s="0" t="inlineStr">
         <is>
-          <t>q1_opt3</t>
+          <t>q2_opt1</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt2</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt3</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt1</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt2</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt3</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>["q1_opt1", "q1_opt2", "q1_opt3", "q2_opt1", "q2_opt2", "q2_opt3", "q3_opt1", "q3_opt2", "q3_opt3", [...], [...]]</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>["q1_opt1", "q1_opt2", "q1_opt3", "q2_opt1", "q2_opt2", "q2_opt3", "q3_opt1", "q3_opt2", "q3_opt3", [...], [...]]</t>
         </is>
       </c>
     </row>
@@ -179,6 +240,71 @@
           <t>Manager</t>
         </is>
       </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>Choice 1</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>Choice 2</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>Choice 3</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>Check 1</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>Check 2</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>Check 3</t>
+        </is>
+      </c>
+      <c r="P2" s="0" t="inlineStr">
+        <is>
+          <t>Stressed out?</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="inlineStr">
+        <is>
+          <t>Relaxed?</t>
+        </is>
+      </c>
+      <c r="R2" s="0" t="inlineStr">
+        <is>
+          <t>In pain?</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -206,45 +332,113 @@
           <t> </t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="F3" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Super</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Employee</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K3" s="0" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="L3" s="0" t="inlineStr">
-        <is>
-          <t>Oranges</t>
-        </is>
-      </c>
-      <c r="M3" s="0" t="inlineStr">
-        <is>
-          <t>Kiwis</t>
-        </is>
+          <t>s@s.com</t>
+        </is>
+      </c>
+      <c r="J3" s="2">
+        <v>42707.962511499216</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" s="2">
+        <v>42707.97142585126</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>42708.016006341655</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -274,25 +468,25 @@
         </is>
       </c>
       <c r="F4" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Another one of Steve's</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>Employee</t>
+          <t>Employees</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>s@s.com</t>
+          <t>eee@e.com</t>
         </is>
       </c>
       <c r="J4" s="2">
-        <v>42707.939023751285</v>
+        <v>42707.96312438869</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
@@ -303,62 +497,77 @@
       <c r="M4" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>Another one of Steve's</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>Employees</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>eee@e.com</t>
-        </is>
-      </c>
-      <c r="J5" s="2">
-        <v>42707.9390814477</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>1</v>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="2">
+        <v>42707.97153375884</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>42708.01611987991</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
